--- a/data/customer_loans.xlsx
+++ b/data/customer_loans.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -568,6 +568,41 @@
       </c>
       <c r="K3" t="inlineStr"/>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sharvi</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4</v>
+      </c>
+      <c r="E4" t="n">
+        <v>10400</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>10400</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>45855</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>400</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
